--- a/用例数据/股转/所得税/测试结果.xlsx
+++ b/用例数据/股转/所得税/测试结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CustSellLimitTax" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="252">
   <si>
     <t>OCCURTIME</t>
   </si>
@@ -244,9 +244,6 @@
     <t>A0</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>50052</t>
   </si>
   <si>
@@ -703,31 +700,7 @@
     <t>1.0000000000</t>
   </si>
   <si>
-    <t>003_001_014</t>
-  </si>
-  <si>
-    <t>5002</t>
-  </si>
-  <si>
-    <t>000000999999</t>
-  </si>
-  <si>
-    <t>保留账户</t>
-  </si>
-  <si>
-    <t>330.500</t>
-  </si>
-  <si>
-    <t>保留资金账号</t>
-  </si>
-  <si>
-    <t>字符3</t>
-  </si>
-  <si>
     <t>-170.830</t>
-  </si>
-  <si>
-    <t>170.830</t>
   </si>
   <si>
     <t>GZ11721600</t>
@@ -784,42 +757,6 @@
     <t>000006864227</t>
   </si>
   <si>
-    <t>30050138</t>
-  </si>
-  <si>
-    <t>10000360.500</t>
-  </si>
-  <si>
-    <t>000006864223</t>
-  </si>
-  <si>
-    <t>30050140</t>
-  </si>
-  <si>
-    <t>10000531.330</t>
-  </si>
-  <si>
-    <t>000006864225</t>
-  </si>
-  <si>
-    <t>30050143</t>
-  </si>
-  <si>
-    <t>10000702.160</t>
-  </si>
-  <si>
-    <t>000006864228</t>
-  </si>
-  <si>
-    <t>30050145</t>
-  </si>
-  <si>
-    <t>10001032.660</t>
-  </si>
-  <si>
-    <t>000006864230</t>
-  </si>
-  <si>
     <t>30050139</t>
   </si>
   <si>
@@ -842,6 +779,10 @@
   </si>
   <si>
     <t>000006864222</t>
+  </si>
+  <si>
+    <t>005_005_030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1169,60 +1110,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ35"/>
   <sheetViews>
-    <sheetView topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AM3" sqref="AM3:AM4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1249,7 +1190,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
@@ -1306,13 +1247,13 @@
         <v>27</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>29</v>
@@ -1351,7 +1292,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -1362,7 +1303,7 @@
         <v>43</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>45</v>
@@ -1476,12 +1417,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>43</v>
@@ -1508,16 +1449,16 @@
         <v>50</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>52</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>54</v>
@@ -1526,7 +1467,7 @@
         <v>55</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>57</v>
@@ -1541,16 +1482,16 @@
         <v>60</v>
       </c>
       <c r="V3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W3" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="Z3" s="1" t="s">
         <v>65</v>
@@ -1562,7 +1503,7 @@
         <v>47</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AD3" s="1" t="s">
         <v>50</v>
@@ -1601,12 +1542,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>43</v>
@@ -1615,13 +1556,13 @@
         <v>44</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>48</v>
@@ -1633,10 +1574,10 @@
         <v>50</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>53</v>
@@ -1687,7 +1628,7 @@
         <v>47</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AD4" s="1" t="s">
         <v>50</v>
@@ -1702,13 +1643,13 @@
         <v>67</v>
       </c>
       <c r="AJ4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK4" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AK4" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="AL4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM4" s="1" t="s">
         <v>44</v>
@@ -1726,12 +1667,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>43</v>
@@ -1740,13 +1681,13 @@
         <v>44</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>48</v>
@@ -1758,16 +1699,16 @@
         <v>50</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>54</v>
@@ -1776,7 +1717,7 @@
         <v>55</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R5" s="1" t="s">
         <v>57</v>
@@ -1791,16 +1732,16 @@
         <v>60</v>
       </c>
       <c r="V5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W5" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="Z5" s="1" t="s">
         <v>65</v>
@@ -1812,7 +1753,7 @@
         <v>47</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AD5" s="1" t="s">
         <v>50</v>
@@ -1827,13 +1768,13 @@
         <v>67</v>
       </c>
       <c r="AJ5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK5" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AK5" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="AL5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM5" s="1" t="s">
         <v>44</v>
@@ -1851,36 +1792,36 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1890,160 +1831,160 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EH30"/>
+  <dimension ref="A1:EH26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="Y12" sqref="Y12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="26.875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="13" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.25" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="15" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="15.375" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="26" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="15.375" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="19" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="58" max="59" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="82" max="83" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="84" max="85" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="58" max="59" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="82" max="83" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="84" max="85" width="18.75" bestFit="1" customWidth="1"/>
     <col min="86" max="86" width="18" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="12.875" bestFit="1" customWidth="1"/>
     <col min="91" max="91" width="13" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="14.25" bestFit="1" customWidth="1"/>
     <col min="99" max="99" width="15" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="17.875" bestFit="1" customWidth="1"/>
     <col min="101" max="101" width="13" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="11.375" bestFit="1" customWidth="1"/>
     <col min="112" max="112" width="19" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="13.375" bestFit="1" customWidth="1"/>
     <col min="115" max="115" width="23" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="19.5" bestFit="1" customWidth="1"/>
     <col min="121" max="121" width="23" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -2055,10 +1996,10 @@
         <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>33</v>
@@ -2079,16 +2020,16 @@
         <v>5</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>8</v>
@@ -2112,52 +2053,52 @@
         <v>15</v>
       </c>
       <c r="AA1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AF1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="AN1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AO1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AP1" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="AQ1" s="1" t="s">
         <v>40</v>
@@ -2166,315 +2107,315 @@
         <v>35</v>
       </c>
       <c r="AS1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AT1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="BH1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="BI1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="BZ1" s="1" t="s">
         <v>39</v>
       </c>
       <c r="CA1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="CB1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="CK1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c r="CL1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="CL1" s="1" t="s">
+      <c r="CM1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="CM1" s="1" t="s">
+      <c r="CN1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="CN1" s="1" t="s">
+      <c r="CO1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CP1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="CQ1" s="1" t="s">
+      <c r="CR1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="CR1" s="1" t="s">
+      <c r="CS1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="CS1" s="1" t="s">
+      <c r="CT1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="CT1" s="1" t="s">
+      <c r="CU1" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="CV1" s="1" t="s">
         <v>38</v>
       </c>
       <c r="CW1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="CX1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="CX1" s="1" t="s">
+      <c r="CY1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="CY1" s="1" t="s">
+      <c r="CZ1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="CZ1" s="1" t="s">
+      <c r="DA1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="DA1" s="1" t="s">
+      <c r="DB1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="DB1" s="1" t="s">
+      <c r="DC1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="DC1" s="1" t="s">
+      <c r="DD1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="DD1" s="1" t="s">
+      <c r="DE1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="DE1" s="1" t="s">
+      <c r="DF1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="DF1" s="1" t="s">
+      <c r="DG1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="DG1" s="1" t="s">
+      <c r="DH1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="DH1" s="1" t="s">
+      <c r="DI1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="DI1" s="1" t="s">
+      <c r="DJ1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="DJ1" s="1" t="s">
+      <c r="DK1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="DK1" s="1" t="s">
+      <c r="DL1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="DL1" s="1" t="s">
+      <c r="DM1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="DM1" s="1" t="s">
+      <c r="DN1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="DN1" s="1" t="s">
+      <c r="DO1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="DO1" s="1" t="s">
+      <c r="DP1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="DP1" s="1" t="s">
+      <c r="DQ1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="DQ1" s="1" t="s">
+      <c r="DR1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="DR1" s="1" t="s">
+      <c r="DS1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="DS1" s="1" t="s">
+      <c r="DT1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="DT1" s="1" t="s">
+      <c r="DU1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="DU1" s="1" t="s">
+      <c r="DV1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="DV1" s="1" t="s">
+      <c r="DW1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="DW1" s="1" t="s">
+      <c r="DX1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="DX1" s="1" t="s">
+      <c r="DY1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="DY1" s="1" t="s">
+      <c r="DZ1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="DZ1" s="1" t="s">
+      <c r="EA1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="EA1" s="1" t="s">
+      <c r="EB1" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="EB1" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="EC1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="ED1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="EE1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="EE1" s="1" t="s">
+      <c r="EF1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="EF1" s="1" t="s">
+      <c r="EG1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="EG1" s="1" t="s">
+      <c r="EH1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="EH1" s="1" t="s">
-        <v>207</v>
-      </c>
     </row>
-    <row r="2" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>72</v>
@@ -2483,10 +2424,10 @@
         <v>44</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>73</v>
@@ -2498,7 +2439,7 @@
         <v>73</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>49</v>
@@ -2510,94 +2451,94 @@
         <v>53</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>50</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AQ2" s="1" t="s">
         <v>73</v>
       </c>
       <c r="AR2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AS2" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="AT2" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AU2" s="1" t="s">
         <v>72</v>
       </c>
       <c r="AV2" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AX2" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AW2" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="AX2" s="1" t="s">
+      <c r="AY2" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="BA2" s="1" t="s">
         <v>67</v>
@@ -2609,43 +2550,43 @@
         <v>47</v>
       </c>
       <c r="BF2" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BI2" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="BG2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BI2" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="BJ2" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BL2" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BM2" s="1" t="s">
         <v>67</v>
       </c>
       <c r="BN2" s="1" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="BQ2" s="1" t="s">
         <v>67</v>
       </c>
       <c r="BR2" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BS2" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BT2" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="BV2" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="BW2" s="1" t="s">
         <v>47</v>
@@ -2660,147 +2601,147 @@
         <v>67</v>
       </c>
       <c r="CA2" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="CB2" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="CC2" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="CD2" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="CE2" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="CG2" s="1" t="s">
         <v>67</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="CJ2" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="CK2" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="CL2" s="1" t="s">
         <v>60</v>
       </c>
       <c r="CR2" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CT2" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="CT2" s="1" t="s">
+      <c r="CV2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="DA2" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="DC2" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="DD2" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="DE2" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="CV2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="DA2" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="DC2" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DD2" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DE2" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="DF2" s="1" t="s">
         <v>60</v>
       </c>
       <c r="DG2" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="DJ2" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="DK2" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="DL2" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="DM2" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="DN2" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="DJ2" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="DK2" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DL2" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DM2" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DN2" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="DO2" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="DP2" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="DQ2" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="DR2" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="DS2" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="DT2" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="DU2" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="DV2" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="DW2" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="DX2" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="DY2" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="ED2" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="EE2" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="EG2" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>72</v>
@@ -2809,10 +2750,10 @@
         <v>44</v>
       </c>
       <c r="N3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>73</v>
@@ -2824,7 +2765,7 @@
         <v>73</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>49</v>
@@ -2833,97 +2774,97 @@
         <v>48</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="X3" s="1" t="s">
         <v>50</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AQ3" s="1" t="s">
         <v>73</v>
       </c>
       <c r="AR3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS3" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AS3" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="AT3" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AU3" s="1" t="s">
         <v>72</v>
       </c>
       <c r="AV3" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AX3" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AW3" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="AX3" s="1" t="s">
+      <c r="AY3" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="AY3" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AZ3" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="BA3" s="1" t="s">
         <v>67</v>
@@ -2935,43 +2876,43 @@
         <v>47</v>
       </c>
       <c r="BF3" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BI3" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="BG3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BI3" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="BJ3" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BM3" s="1" t="s">
         <v>67</v>
       </c>
       <c r="BN3" s="1" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="BP3" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="BQ3" s="1" t="s">
         <v>67</v>
       </c>
       <c r="BR3" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BS3" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BT3" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="BV3" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="BW3" s="1" t="s">
         <v>47</v>
@@ -2986,151 +2927,160 @@
         <v>67</v>
       </c>
       <c r="CA3" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="CB3" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="CC3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="CD3" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="CE3" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="CG3" s="1" t="s">
         <v>67</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="CJ3" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="CK3" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="CL3" s="1" t="s">
         <v>60</v>
       </c>
       <c r="CR3" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CT3" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="CT3" s="1" t="s">
+      <c r="CV3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="DA3" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="DC3" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="DD3" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="DE3" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="CV3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="DA3" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="DC3" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DD3" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DE3" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="DF3" s="1" t="s">
         <v>60</v>
       </c>
       <c r="DG3" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="DJ3" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="DK3" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="DL3" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="DM3" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="DN3" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="DJ3" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="DK3" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DL3" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DM3" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DN3" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="DO3" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="DP3" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="DQ3" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="DR3" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="DS3" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="DT3" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="DU3" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="DV3" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="DW3" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="DX3" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="DY3" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="ED3" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="EE3" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="EG3" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>228</v>
+      <c r="G4" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>229</v>
+        <v>69</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>230</v>
+        <v>70</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="M4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="P4" s="1" t="s">
         <v>73</v>
       </c>
@@ -3141,145 +3091,157 @@
         <v>73</v>
       </c>
       <c r="S4" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W4" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="X4" s="1" t="s">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="Z4" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="AB4" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="AA4" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="AC4" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ4" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AK4" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AM4" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AN4" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AQ4" s="1" t="s">
         <v>73</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>229</v>
+        <v>69</v>
       </c>
       <c r="AS4" s="1" t="s">
-        <v>232</v>
+        <v>70</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AU4" s="1" t="s">
         <v>72</v>
       </c>
       <c r="AV4" s="1" t="s">
-        <v>233</v>
+        <v>216</v>
+      </c>
+      <c r="AW4" s="1" t="s">
+        <v>245</v>
       </c>
       <c r="AX4" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AY4" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AZ4" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="AY4" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AZ4" s="1" t="s">
+      <c r="BA4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BB4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BC4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="BF4" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="BA4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BB4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BC4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF4" s="1" t="s">
+      <c r="BG4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BI4" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="BG4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BI4" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="BJ4" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BL4" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BM4" s="1" t="s">
         <v>67</v>
       </c>
       <c r="BN4" s="1" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="BP4" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="BQ4" s="1" t="s">
         <v>67</v>
       </c>
       <c r="BR4" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BS4" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BT4" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="BV4" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
+      </c>
+      <c r="BW4" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="BX4" s="1" t="s">
         <v>47</v>
@@ -3288,151 +3250,163 @@
         <v>47</v>
       </c>
       <c r="BZ4" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="CA4" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="CB4" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
+      </c>
+      <c r="CC4" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="CD4" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="CE4" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="CG4" s="1" t="s">
         <v>67</v>
       </c>
       <c r="CH4" s="1" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="CJ4" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="CK4" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="CL4" s="1" t="s">
         <v>60</v>
       </c>
       <c r="CR4" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CT4" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="CT4" s="1" t="s">
+      <c r="CV4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="DA4" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="DC4" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="DD4" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="DE4" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="CV4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="DA4" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="DC4" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DD4" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DE4" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="DF4" s="1" t="s">
         <v>60</v>
       </c>
       <c r="DG4" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="DJ4" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="DK4" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="DL4" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="DM4" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="DN4" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="DJ4" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="DK4" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DL4" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DM4" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DN4" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="DO4" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="DP4" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="DQ4" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="DR4" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="DS4" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="DT4" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="DU4" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="DV4" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="DW4" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="DX4" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="DY4" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="ED4" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="EE4" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="EG4" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>228</v>
+      <c r="G5" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>229</v>
+        <v>69</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>230</v>
+        <v>70</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="M5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="P5" s="1" t="s">
         <v>73</v>
       </c>
@@ -3443,145 +3417,157 @@
         <v>73</v>
       </c>
       <c r="S5" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W5" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="X5" s="1" t="s">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="Z5" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="AB5" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="AA5" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="AC5" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AG5" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AH5" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AI5" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ5" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AK5" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AL5" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AM5" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AN5" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AO5" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP5" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AQ5" s="1" t="s">
         <v>73</v>
       </c>
       <c r="AR5" s="1" t="s">
-        <v>229</v>
+        <v>69</v>
       </c>
       <c r="AS5" s="1" t="s">
-        <v>232</v>
+        <v>70</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AU5" s="1" t="s">
         <v>72</v>
       </c>
       <c r="AV5" s="1" t="s">
-        <v>233</v>
+        <v>216</v>
+      </c>
+      <c r="AW5" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="AX5" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AY5" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AZ5" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="AY5" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AZ5" s="1" t="s">
+      <c r="BA5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BB5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BC5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="BF5" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="BA5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BB5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BC5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF5" s="1" t="s">
+      <c r="BG5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BI5" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="BG5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BI5" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="BJ5" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BL5" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BM5" s="1" t="s">
         <v>67</v>
       </c>
       <c r="BN5" s="1" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="BP5" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="BQ5" s="1" t="s">
         <v>67</v>
       </c>
       <c r="BR5" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BS5" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BT5" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="BV5" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
+      </c>
+      <c r="BW5" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="BX5" s="1" t="s">
         <v>47</v>
@@ -3590,1397 +3576,144 @@
         <v>47</v>
       </c>
       <c r="BZ5" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="CA5" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="CB5" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
+      </c>
+      <c r="CC5" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="CD5" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="CE5" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="CG5" s="1" t="s">
         <v>67</v>
       </c>
       <c r="CH5" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="CJ5" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="CK5" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="CL5" s="1" t="s">
         <v>60</v>
       </c>
       <c r="CR5" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CT5" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="CT5" s="1" t="s">
+      <c r="CV5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="DA5" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="DC5" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="DD5" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="DE5" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="CV5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="DA5" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="DC5" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DD5" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DE5" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="DF5" s="1" t="s">
         <v>60</v>
       </c>
       <c r="DG5" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="DJ5" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="DK5" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="DL5" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="DM5" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="DN5" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="DJ5" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="DK5" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DL5" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DM5" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DN5" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="DO5" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="DP5" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="DQ5" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="DR5" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="DS5" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="DT5" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="DU5" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="DV5" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="DW5" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="DX5" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="DY5" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="ED5" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="EE5" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="EG5" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AF6" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG6" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AI6" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AJ6" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK6" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AL6" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AM6" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AN6" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AO6" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AP6" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="AQ6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AR6" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="AS6" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="AT6" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="AU6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AV6" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="AX6" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="AY6" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AZ6" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="BA6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BB6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BC6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF6" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="BG6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BI6" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="BJ6" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="BL6" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="BM6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BN6" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="BP6" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="BQ6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BR6" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="BS6" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="BT6" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="BV6" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="BX6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="BY6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="BZ6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="CA6" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="CB6" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="CD6" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="CE6" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="CG6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="CH6" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="CJ6" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="CK6" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="CL6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="CR6" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="CT6" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="CV6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="DA6" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="DC6" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DD6" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DE6" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="DF6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="DG6" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="DJ6" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="DK6" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DL6" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DM6" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DN6" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="DO6" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DP6" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DQ6" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DR6" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DS6" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DT6" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DU6" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DV6" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DW6" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DX6" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DY6" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="ED6" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="EE6" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="EG6" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AD7" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AE7" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AF7" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG7" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AH7" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AI7" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AJ7" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK7" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AL7" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AM7" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AN7" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AO7" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AP7" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="AQ7" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AR7" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="AS7" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="AT7" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="AU7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AV7" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="AX7" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="AY7" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AZ7" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="BA7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BB7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BC7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF7" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="BG7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BI7" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="BJ7" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="BL7" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="BM7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BN7" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="BP7" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="BQ7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BR7" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="BS7" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="BT7" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="BV7" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="BX7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="BY7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="BZ7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="CA7" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="CB7" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="CD7" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="CE7" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="CG7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="CH7" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="CJ7" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="CK7" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="CL7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="CR7" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="CT7" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="CV7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="DA7" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="DC7" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DD7" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DE7" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="DF7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="DG7" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="DJ7" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="DK7" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DL7" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DM7" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DN7" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="DO7" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DP7" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DQ7" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DR7" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DS7" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DT7" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DU7" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DV7" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DW7" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DX7" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DY7" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="ED7" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="EE7" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="EG7" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="AC8" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AD8" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AE8" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AF8" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG8" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AH8" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AI8" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AJ8" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK8" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AL8" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AM8" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AN8" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AO8" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AP8" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="AQ8" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AR8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AS8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AT8" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="AU8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AV8" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="AW8" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="AX8" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="AY8" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AZ8" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="BA8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BB8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BC8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="BF8" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="BG8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BI8" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="BJ8" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="BL8" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="BM8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BN8" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="BP8" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="BQ8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BR8" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="BS8" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="BT8" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="BV8" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="BW8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="BX8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="BY8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="BZ8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="CA8" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="CB8" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="CC8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="CD8" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="CE8" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="CG8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="CH8" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="CJ8" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="CK8" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="CL8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="CR8" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="CT8" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="CV8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="DA8" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="DC8" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DD8" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DE8" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="DF8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="DG8" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="DJ8" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="DK8" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DL8" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DM8" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DN8" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="DO8" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DP8" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DQ8" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DR8" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DS8" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DT8" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DU8" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DV8" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DW8" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DX8" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DY8" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="ED8" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="EE8" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="EG8" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA9" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="AB9" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="AC9" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AD9" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AE9" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AF9" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG9" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AH9" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AI9" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AJ9" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK9" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AL9" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AM9" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AN9" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AO9" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AP9" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="AQ9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AR9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AS9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AT9" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="AU9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AV9" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="AW9" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="AX9" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="AY9" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AZ9" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="BA9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BB9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BC9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="BF9" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="BG9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BI9" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="BJ9" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="BL9" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="BM9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BN9" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="BP9" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="BQ9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BR9" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="BS9" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="BT9" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="BV9" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="BW9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="BX9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="BY9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="BZ9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="CA9" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="CB9" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="CC9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="CD9" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="CE9" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="CG9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="CH9" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="CJ9" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="CK9" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="CL9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="CR9" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="CT9" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="CV9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="DA9" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="DC9" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DD9" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DE9" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="DF9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="DG9" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="DJ9" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="DK9" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DL9" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DM9" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DN9" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="DO9" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DP9" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DQ9" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DR9" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DS9" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DT9" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DU9" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DV9" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DW9" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DX9" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DY9" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="ED9" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="EE9" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="EG9" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/用例数据/股转/所得税/测试结果.xlsx
+++ b/用例数据/股转/所得税/测试结果.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="265">
   <si>
     <t>OCCURTIME</t>
   </si>
@@ -782,6 +782,48 @@
   </si>
   <si>
     <t>005_005_030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BRIEFIDLIST</t>
+  </si>
+  <si>
+    <t>POSTDATE</t>
+  </si>
+  <si>
+    <t>20230216084553</t>
+  </si>
+  <si>
+    <t>30101436</t>
+  </si>
+  <si>
+    <t>20230215000000</t>
+  </si>
+  <si>
+    <t>未开户挂账</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>30101437</t>
+  </si>
+  <si>
+    <t>30101438</t>
+  </si>
+  <si>
+    <t>30101439</t>
+  </si>
+  <si>
+    <t>000011721601</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GZ11721600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>831353</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1111,7 +1153,7 @@
   <dimension ref="A1:AQ35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1393,7 +1435,7 @@
         <v>47</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>69</v>
+        <v>262</v>
       </c>
       <c r="AK2" s="1" t="s">
         <v>70</v>
@@ -1793,11 +1835,553 @@
       </c>
     </row>
     <row r="6" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP8" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AH9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP9" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AH10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP10" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AH11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP11" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
     <row r="12" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -1834,7 +2418,7 @@
   <dimension ref="A1:EH26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2424,7 +3008,7 @@
         <v>44</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>84</v>
+        <v>264</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>85</v>
